--- a/data/Overall_effects_not_split_lnCVR.xlsx
+++ b/data/Overall_effects_not_split_lnCVR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hamanw\Dropbox\Meta Analysis Project\Extraction\Transgenerational Meta-Analysis\R\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Dropbox\Meta Analysis Project\Extraction\Transgenerational Meta-Analysis\R\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C586536A-B99B-415E-8159-85B9505CB2B9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80187F08-0083-486E-9337-D270EA49FDA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>Experiment_Type</t>
   </si>
@@ -37,21 +37,6 @@
   </si>
   <si>
     <t>ci.ub</t>
-  </si>
-  <si>
-    <t>p-val</t>
-  </si>
-  <si>
-    <t>k</t>
-  </si>
-  <si>
-    <t>papers</t>
-  </si>
-  <si>
-    <t>cohorts</t>
-  </si>
-  <si>
-    <t>traits</t>
   </si>
   <si>
     <t>Overall</t>
@@ -393,10 +378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -406,7 +391,7 @@
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -414,7 +399,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -422,28 +407,13 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="B2" t="s">
         <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
       </c>
       <c r="C2">
         <v>-0.10730000000000001</v>
@@ -455,46 +425,46 @@
         <v>0.3095</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>0.106</v>
+        <v>-1.2999999999999999E-3</v>
       </c>
       <c r="D3">
-        <v>-0.31369999999999998</v>
+        <v>-0.1154</v>
       </c>
       <c r="E3">
-        <v>0.52559999999999996</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.11269999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>1.18E-2</v>
+        <v>-9.5500000000000002E-2</v>
       </c>
       <c r="D4">
-        <v>-0.38740000000000002</v>
+        <v>-0.3049</v>
       </c>
       <c r="E4">
-        <v>0.41099999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.1139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>9.8799999999999999E-2</v>
@@ -506,38 +476,38 @@
         <v>0.35630000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
       <c r="C6">
-        <v>-0.1085</v>
+        <v>-9.7999999999999997E-3</v>
       </c>
       <c r="D6">
-        <v>-0.3856</v>
+        <v>-0.13389999999999999</v>
       </c>
       <c r="E6">
-        <v>0.16850000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.1143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>-0.15840000000000001</v>
+        <v>-5.9700000000000003E-2</v>
       </c>
       <c r="D7">
-        <v>-0.43490000000000001</v>
+        <v>-0.1797</v>
       </c>
       <c r="E7">
-        <v>0.11799999999999999</v>
+        <v>6.0299999999999999E-2</v>
       </c>
     </row>
   </sheetData>
